--- a/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TelegramBot\ExcelReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7E8C49-69A4-4072-A7C2-785B450E16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0FD153-964D-46BF-BA0B-5F5543DF406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{9C79175A-CC57-415C-A5A3-962FFE139BE4}"/>
+    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{CBC573C1-EC6B-4096-92D9-D9C5628315D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{84EFAE59-635F-4139-941A-ED398E80FEF2}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{0002129A-D6EC-4624-9A08-EA6C8F523B9A}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Таблица Users</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>Таблица Users на 03.04.2024 22:50:09</t>
   </si>
   <si>
     <t>id_user</t>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>karemp1</t>
+  </si>
+  <si>
+    <t>wonder_of_sus</t>
+  </si>
+  <si>
+    <t>Михаил Алексеевич ????</t>
+  </si>
+  <si>
+    <t>dve_dorozhki</t>
+  </si>
+  <si>
+    <t>Две дорожки</t>
+  </si>
+  <si>
+    <t>Админ в Студии</t>
   </si>
 </sst>
 </file>
@@ -160,8 +175,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ECF79857-9487-4F6A-B83B-04ED528D1CBA}">
-  <header guid="{ECF79857-9487-4F6A-B83B-04ED528D1CBA}" dateTime="2024-03-27T18:47:05" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6585D353-CF87-47EE-B5CA-5DF6B452D83E}">
+  <header guid="{6585D353-CF87-47EE-B5CA-5DF6B452D83E}" dateTime="2024-04-03T22:50:09" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -473,8 +488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32195B4A-6698-4892-A7F3-54166AAFC387}">
-  <dimension ref="A1:Z10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9555DAF6-E5C2-4463-BB33-EF31A371B960}">
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,8 +497,8 @@
   <cols>
     <col min="1" max="1" width="6.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
@@ -556,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10090</v>
       </c>
       <c r="G4">
         <v>347129217</v>
@@ -576,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>10900</v>
@@ -675,9 +690,6 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
         <v>10090</v>
       </c>
@@ -685,9 +697,52 @@
         <v>1227097789</v>
       </c>
     </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9500</v>
+      </c>
+      <c r="G11">
+        <v>752309882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>9999</v>
+      </c>
+      <c r="G12">
+        <v>5266609693</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{84EFAE59-635F-4139-941A-ED398E80FEF2}">
+    <customSheetView guid="{0002129A-D6EC-4624-9A08-EA6C8F523B9A}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0FD153-964D-46BF-BA0B-5F5543DF406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED79829D-5F0D-4EFC-97A9-D0F2843C9F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{CBC573C1-EC6B-4096-92D9-D9C5628315D6}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="18515" windowHeight="9583" xr2:uid="{F3C3A271-67ED-4928-A1EF-82F8B8D391D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{0002129A-D6EC-4624-9A08-EA6C8F523B9A}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{DC3DAAC7-E7CA-4117-B18E-D3B5A7FF40EB}" mergeInterval="0" personalView="1" xWindow="88" yWindow="88" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Таблица Users на 03.04.2024 22:50:09</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>Таблица Users на 03.05.2024 16:02:03</t>
   </si>
   <si>
     <t>id_user</t>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Админ в Студии</t>
+  </si>
+  <si>
+    <t>whonune</t>
+  </si>
+  <si>
+    <t>Nun</t>
+  </si>
+  <si>
+    <t>sflooof</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Dorbmas</t>
+  </si>
+  <si>
+    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -175,8 +193,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6585D353-CF87-47EE-B5CA-5DF6B452D83E}">
-  <header guid="{6585D353-CF87-47EE-B5CA-5DF6B452D83E}" dateTime="2024-04-03T22:50:09" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB603C50-57EF-4C42-AE4A-6CB20D1127FE}">
+  <header guid="{AB603C50-57EF-4C42-AE4A-6CB20D1127FE}" dateTime="2024-05-03T16:02:03" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -488,23 +506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9555DAF6-E5C2-4463-BB33-EF31A371B960}">
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E439287-343C-4523-91D0-0AB296F8C83A}">
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +552,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -577,7 +595,7 @@
         <v>347129217</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>12</v>
       </c>
@@ -600,7 +618,7 @@
         <v>1092333337</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>13</v>
       </c>
@@ -620,7 +638,7 @@
         <v>1227097789</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>14</v>
       </c>
@@ -640,7 +658,7 @@
         <v>5704495162</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>15</v>
       </c>
@@ -660,7 +678,7 @@
         <v>6603217348</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>16</v>
       </c>
@@ -680,7 +698,7 @@
         <v>5914316519</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>17</v>
       </c>
@@ -697,7 +715,7 @@
         <v>1227097789</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>18</v>
       </c>
@@ -717,7 +735,7 @@
         <v>752309882</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>19</v>
       </c>
@@ -740,9 +758,66 @@
         <v>5266609693</v>
       </c>
     </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1135598703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>8500</v>
+      </c>
+      <c r="G14">
+        <v>576539166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10090</v>
+      </c>
+      <c r="G15">
+        <v>910839249</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0002129A-D6EC-4624-9A08-EA6C8F523B9A}">
+    <customSheetView guid="{DC3DAAC7-E7CA-4117-B18E-D3B5A7FF40EB}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED79829D-5F0D-4EFC-97A9-D0F2843C9F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BBC7C6-2F2C-4311-B838-94AC84901915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="18515" windowHeight="9583" xr2:uid="{F3C3A271-67ED-4928-A1EF-82F8B8D391D4}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="18515" windowHeight="9583" xr2:uid="{A982E2C0-AF7E-40F3-A3BB-618A2671134B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{DC3DAAC7-E7CA-4117-B18E-D3B5A7FF40EB}" mergeInterval="0" personalView="1" xWindow="88" yWindow="88" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{4AFF2685-D828-4FC6-9457-70F6F6E377DB}" mergeInterval="0" personalView="1" xWindow="132" yWindow="132" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
-    <t>Таблица Users на 03.05.2024 16:02:03</t>
+    <t>Таблица Users на 06.06.2024 19:38:15</t>
   </si>
   <si>
     <t>id_user</t>
@@ -193,8 +193,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB603C50-57EF-4C42-AE4A-6CB20D1127FE}">
-  <header guid="{AB603C50-57EF-4C42-AE4A-6CB20D1127FE}" dateTime="2024-05-03T16:02:03" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{86BF5539-6C65-49B8-80A8-3348CD401249}">
+  <header guid="{86BF5539-6C65-49B8-80A8-3348CD401249}" dateTime="2024-06-06T19:38:15" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E439287-343C-4523-91D0-0AB296F8C83A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CC5DD0-9E23-4A20-84CD-3D4195F64EFD}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -585,11 +585,8 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
       <c r="F4">
-        <v>10090</v>
+        <v>10000</v>
       </c>
       <c r="G4">
         <v>347129217</v>
@@ -749,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>9999</v>
@@ -817,7 +814,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DC3DAAC7-E7CA-4117-B18E-D3B5A7FF40EB}">
+    <customSheetView guid="{4AFF2685-D828-4FC6-9457-70F6F6E377DB}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
+++ b/TgBot VS/TelegramBot/ExcelReports/AllUsers.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TgBot VS\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BBC7C6-2F2C-4311-B838-94AC84901915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84124825-5105-4E6A-B3D5-7FF1B0ECBC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1131" yWindow="1131" windowWidth="18515" windowHeight="9583" xr2:uid="{A982E2C0-AF7E-40F3-A3BB-618A2671134B}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="18514" windowHeight="9583" xr2:uid="{40759785-B89F-41C7-9C65-B1B27C24AA42}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{4AFF2685-D828-4FC6-9457-70F6F6E377DB}" mergeInterval="0" personalView="1" xWindow="132" yWindow="132" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{0503DBAA-0AFC-4D9B-A2D8-7931818D1D60}" mergeInterval="0" personalView="1" xWindow="308" yWindow="308" windowWidth="2160" windowHeight="1118" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Таблица Users на 06.06.2024 19:38:15</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Таблица Users на 17.06.2024 23:56:59</t>
   </si>
   <si>
     <t>id_user</t>
@@ -69,73 +69,16 @@
     <t>Паша</t>
   </si>
   <si>
-    <t>A1enina</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Evgenia</t>
-  </si>
-  <si>
-    <t>karbl4_empire</t>
+    <t>PetrovskiyPublisher</t>
+  </si>
+  <si>
+    <t>Ашап</t>
+  </si>
+  <si>
+    <t>karemp1</t>
   </si>
   <si>
     <t>Тото</t>
-  </si>
-  <si>
-    <t>albernov</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>webappsiv</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>dev_appstrain</t>
-  </si>
-  <si>
-    <t>AppsTrain</t>
-  </si>
-  <si>
-    <t>karemp1</t>
-  </si>
-  <si>
-    <t>wonder_of_sus</t>
-  </si>
-  <si>
-    <t>Михаил Алексеевич ????</t>
-  </si>
-  <si>
-    <t>dve_dorozhki</t>
-  </si>
-  <si>
-    <t>Две дорожки</t>
-  </si>
-  <si>
-    <t>Админ в Студии</t>
-  </si>
-  <si>
-    <t>whonune</t>
-  </si>
-  <si>
-    <t>Nun</t>
-  </si>
-  <si>
-    <t>sflooof</t>
-  </si>
-  <si>
-    <t>София</t>
-  </si>
-  <si>
-    <t>Dorbmas</t>
-  </si>
-  <si>
-    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -193,8 +136,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{86BF5539-6C65-49B8-80A8-3348CD401249}">
-  <header guid="{86BF5539-6C65-49B8-80A8-3348CD401249}" dateTime="2024-06-06T19:38:15" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A3AC7CF4-B399-41D5-8C4A-F170CBAB6C88}">
+  <header guid="{A3AC7CF4-B399-41D5-8C4A-F170CBAB6C88}" dateTime="2024-06-17T23:56:59" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -506,17 +449,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CC5DD0-9E23-4A20-84CD-3D4195F64EFD}">
-  <dimension ref="A1:Z15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C78A06-F49D-4D28-8B23-9FB225367E01}">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.07421875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.84375" bestFit="1" customWidth="1"/>
@@ -577,7 +520,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -585,8 +528,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>347129217</v>
@@ -594,227 +540,41 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1092333337</v>
+        <v>7393616572</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1227097789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6100</v>
-      </c>
-      <c r="G7">
-        <v>5704495162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>10900</v>
-      </c>
-      <c r="G8">
-        <v>6603217348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>10900</v>
-      </c>
-      <c r="G9">
-        <v>5914316519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>10090</v>
-      </c>
-      <c r="G10">
-        <v>1227097789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>9500</v>
-      </c>
-      <c r="G11">
-        <v>752309882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-      <c r="G12">
-        <v>5266609693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1135598703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>8500</v>
-      </c>
-      <c r="G14">
-        <v>576539166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>10090</v>
-      </c>
-      <c r="G15">
-        <v>910839249</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AFF2685-D828-4FC6-9457-70F6F6E377DB}">
+    <customSheetView guid="{0503DBAA-0AFC-4D9B-A2D8-7931818D1D60}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
